--- a/設計書/テーブル定義書.xlsx
+++ b/設計書/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64E97D9-C10C-4EAD-92FB-5E0B4712EBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1F99A-C944-4751-94D7-5AB927896792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9828" yWindow="0" windowWidth="10548" windowHeight="8760" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>説明／備考</t>
   </si>
@@ -198,13 +198,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>テーブルID</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -375,6 +368,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>玉木</t>
+    <rPh sb="0" eb="2">
+      <t>タマキ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1588,17 +1595,17 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="59" t="s">
@@ -1630,7 +1637,7 @@
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
@@ -1719,7 +1726,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1735,8 +1742,8 @@
     <col min="11" max="11" width="9" style="23" customWidth="1"/>
     <col min="12" max="12" width="12.109375" style="23" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="19" customWidth="1"/>
     <col min="16" max="16" width="9.77734375" style="19" customWidth="1"/>
     <col min="17" max="16384" width="9" style="19"/>
   </cols>
@@ -1765,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -1779,10 +1786,10 @@
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="98"/>
       <c r="F2" s="98"/>
@@ -1794,7 +1801,7 @@
       <c r="J2" s="98"/>
       <c r="K2" s="99"/>
       <c r="L2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="49">
         <v>44187</v>
@@ -1811,7 +1818,7 @@
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
@@ -1866,11 +1873,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5</v>
@@ -1903,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>23</v>
@@ -1929,11 +1936,13 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="87"/>
       <c r="N7" s="39"/>
-      <c r="O7" s="35"/>
+      <c r="O7" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -1941,13 +1950,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="37">
         <v>10</v>
@@ -1961,7 +1970,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="91"/>
       <c r="N8" s="39"/>
@@ -1973,27 +1982,27 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="37">
         <v>40</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="89"/>
       <c r="N9" s="39"/>
@@ -2005,31 +2014,33 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="37">
         <v>11</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="89"/>
       <c r="N10" s="39"/>
-      <c r="O10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -2427,11 +2438,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5</v>

--- a/設計書/テーブル定義書.xlsx
+++ b/設計書/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\Git\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D1F99A-C944-4751-94D7-5AB927896792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1DE76-CF77-417C-A008-7065EC970C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="117" r:id="rId1"/>
@@ -1032,12 +1032,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,6 +1071,42 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1136,36 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1538,36 +1538,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1600,22 +1600,22 @@
       <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="59" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1632,29 +1632,29 @@
         <v>43881</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1697,6 +1697,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:B2"/>
@@ -1705,14 +1713,6 @@
     <mergeCell ref="C1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1749,25 +1749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1777,29 +1777,29 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="96">
-        <v>44846</v>
-      </c>
-      <c r="P1" s="97"/>
+      <c r="O1" s="76">
+        <v>44856</v>
+      </c>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="17" t="s">
         <v>34</v>
       </c>
@@ -1809,48 +1809,48 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="99"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -1891,10 +1891,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -1935,10 +1935,10 @@
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="87"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35" t="s">
         <v>54</v>
@@ -1969,10 +1969,10 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="91"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2001,10 +2001,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="89"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2033,10 +2033,10 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35" t="s">
         <v>54</v>
@@ -2057,8 +2057,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2077,8 +2077,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="89"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2097,8 +2097,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2117,8 +2117,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2137,8 +2137,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2157,8 +2157,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2177,8 +2177,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2197,8 +2197,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2217,8 +2217,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2237,8 +2237,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2257,21 +2257,19 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2285,11 +2283,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2326,25 +2326,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="51" t="s">
         <v>9</v>
       </c>
@@ -2352,23 +2352,23 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2376,46 +2376,46 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="99"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2456,10 +2456,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="85"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2484,8 +2484,8 @@
       <c r="I7" s="36"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2504,8 +2504,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2524,8 +2524,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2544,8 +2544,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2564,8 +2564,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2584,8 +2584,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="89"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2604,8 +2604,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="73"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2624,8 +2624,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="73"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2644,8 +2644,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2664,8 +2664,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2684,8 +2684,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="73"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2704,8 +2704,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="73"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2724,8 +2724,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2744,8 +2744,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2764,26 +2764,14 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="73"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -2797,6 +2785,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/設計書/テーブル定義書.xlsx
+++ b/設計書/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\Git\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1DE76-CF77-417C-A008-7065EC970C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A99B4E-C78C-42BD-9C82-B81C386A3747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>説明／備考</t>
   </si>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>m_customer</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>テーブルID</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -312,10 +308,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>character</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>会員の名前</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
@@ -372,17 +364,22 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>数字</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>玉木</t>
     <rPh sb="0" eb="2">
       <t>タマキ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>m_client</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1595,17 +1592,17 @@
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="57" t="s">
@@ -1637,7 +1634,7 @@
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
@@ -1726,7 +1723,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1772,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>11</v>
@@ -1786,22 +1783,22 @@
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
       <c r="H2" s="79"/>
       <c r="I2" s="80" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J2" s="78"/>
       <c r="K2" s="79"/>
       <c r="L2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="49">
         <v>44187</v>
@@ -1818,7 +1815,7 @@
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -1873,11 +1870,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5</v>
@@ -1910,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>23</v>
@@ -1934,15 +1931,15 @@
         <v>25</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="L7" s="96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="97"/>
       <c r="N7" s="39"/>
-      <c r="O7" s="35" t="s">
-        <v>54</v>
-      </c>
+      <c r="O7" s="35"/>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -1950,27 +1947,31 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="37">
-        <v>10</v>
-      </c>
-      <c r="F8" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
       <c r="G8" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="101"/>
       <c r="N8" s="39"/>
@@ -1982,27 +1983,31 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E9" s="37">
         <v>40</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
       <c r="G9" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="L9" s="98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="99"/>
       <c r="N9" s="39"/>
@@ -2014,33 +2019,35 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="37">
         <v>11</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
       <c r="G10" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="L10" s="98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M10" s="99"/>
       <c r="N10" s="39"/>
-      <c r="O10" s="35" t="s">
-        <v>54</v>
-      </c>
+      <c r="O10" s="35"/>
       <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" s="41" customFormat="1" ht="31.5" customHeight="1">
@@ -2438,11 +2445,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>5</v>

--- a/設計書/テーブル定義書.xlsx
+++ b/設計書/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20217005\Desktop\システムG2A219\Git\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A99B4E-C78C-42BD-9C82-B81C386A3747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF116AE-788D-40BD-B66B-FDE1A0D1F7E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>説明／備考</t>
   </si>
@@ -380,6 +380,16 @@
   </si>
   <si>
     <t>m_client</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録用番号 00000000</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1029,6 +1039,12 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,11 +1084,65 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,66 +1173,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1535,36 +1545,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -1597,22 +1607,22 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1629,29 +1639,29 @@
         <v>43881</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:19" ht="22.5" customHeight="1">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="55"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1"/>
     <row r="8" spans="1:19" ht="22.5" customHeight="1"/>
@@ -1694,6 +1704,14 @@
     <row r="45" ht="22.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -1702,14 +1720,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1723,7 +1733,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -1739,32 +1749,32 @@
     <col min="11" max="11" width="9" style="23" customWidth="1"/>
     <col min="12" max="12" width="12.109375" style="23" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" style="19" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" style="19" customWidth="1"/>
     <col min="16" max="16" width="9.77734375" style="19" customWidth="1"/>
     <col min="17" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1774,29 +1784,29 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="76">
+      <c r="O1" s="96">
         <v>44856</v>
       </c>
-      <c r="P1" s="77"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="17" t="s">
         <v>33</v>
       </c>
@@ -1806,48 +1816,48 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="79"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="99"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -1888,10 +1898,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="95"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -1934,11 +1944,13 @@
       <c r="K7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="39"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
     </row>
@@ -1970,10 +1982,10 @@
       <c r="K8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="101"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2006,10 +2018,10 @@
       <c r="K9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="99"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2042,10 +2054,10 @@
       <c r="K10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="99"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2064,8 +2076,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2084,8 +2096,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2104,8 +2116,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2124,8 +2136,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2144,8 +2156,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2164,8 +2176,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2184,8 +2196,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="83"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2204,8 +2216,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2224,8 +2236,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="83"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2244,8 +2256,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2264,19 +2276,21 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="83"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -2290,13 +2304,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -2333,25 +2345,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="51" t="s">
         <v>9</v>
       </c>
@@ -2359,23 +2371,23 @@
       <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2383,46 +2395,46 @@
       <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="79"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="99"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="20"/>
@@ -2463,10 +2475,10 @@
       <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="95"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="26" t="s">
         <v>1</v>
       </c>
@@ -2491,8 +2503,8 @@
       <c r="I7" s="36"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="39"/>
       <c r="O7" s="35"/>
       <c r="P7" s="40"/>
@@ -2511,8 +2523,8 @@
       <c r="I8" s="36"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="101"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="39"/>
       <c r="O8" s="35"/>
       <c r="P8" s="40"/>
@@ -2531,8 +2543,8 @@
       <c r="I9" s="36"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="39"/>
       <c r="O9" s="35"/>
       <c r="P9" s="40"/>
@@ -2551,8 +2563,8 @@
       <c r="I10" s="36"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
       <c r="N10" s="39"/>
       <c r="O10" s="35"/>
       <c r="P10" s="40"/>
@@ -2571,8 +2583,8 @@
       <c r="I11" s="36"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="39"/>
       <c r="O11" s="35"/>
       <c r="P11" s="40"/>
@@ -2591,8 +2603,8 @@
       <c r="I12" s="36"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
       <c r="N12" s="39"/>
       <c r="O12" s="35"/>
       <c r="P12" s="40"/>
@@ -2611,8 +2623,8 @@
       <c r="I13" s="36"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="40"/>
@@ -2631,8 +2643,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="40"/>
@@ -2651,8 +2663,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="40"/>
@@ -2671,8 +2683,8 @@
       <c r="I16" s="36"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="40"/>
@@ -2691,8 +2703,8 @@
       <c r="I17" s="36"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="83"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35"/>
       <c r="P17" s="40"/>
@@ -2711,8 +2723,8 @@
       <c r="I18" s="36"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
       <c r="N18" s="45"/>
       <c r="O18" s="35"/>
       <c r="P18" s="40"/>
@@ -2731,8 +2743,8 @@
       <c r="I19" s="36"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="83"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="45"/>
       <c r="O19" s="35"/>
       <c r="P19" s="40"/>
@@ -2751,8 +2763,8 @@
       <c r="I20" s="36"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="45"/>
       <c r="O20" s="35"/>
       <c r="P20" s="40"/>
@@ -2771,14 +2783,26 @@
       <c r="I21" s="36"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="83"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="45"/>
       <c r="O21" s="35"/>
       <c r="P21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -2792,18 +2816,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
